--- a/new.xlsx
+++ b/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F931F0-9021-47BC-BC90-8381DCFCB375}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD034B-F155-4934-B0A6-4C44C6F010F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -593,7 +593,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,9 +897,6 @@
       <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="I16" t="s">
-        <v>63</v>
-      </c>
       <c r="K16" t="s">
         <v>58</v>
       </c>

--- a/new.xlsx
+++ b/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD034B-F155-4934-B0A6-4C44C6F010F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB9942F-F32B-4C31-848B-57377D48885E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +897,9 @@
       <c r="H16" t="s">
         <v>57</v>
       </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
       <c r="K16" t="s">
         <v>58</v>
       </c>
